--- a/12.11.21_MTS_MISIS/final_tables/PC3_results.xlsx
+++ b/12.11.21_MTS_MISIS/final_tables/PC3_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -466,15 +466,14 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="6" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8.88671875" collapsed="1"/>
-    <col min="8" max="18" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="8.88671875" collapsed="1"/>
+    <col min="8" max="18" width="8.88671875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
